--- a/src/models/baselines/SVM/results/real-world/Dribbble/metrics.xlsx
+++ b/src/models/baselines/SVM/results/real-world/Dribbble/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7935437513967174</v>
+        <v>0.7974210733962925</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6883116883116883</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6883116883116883</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8595581337924223</v>
+        <v>0.8742856738868334</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6753246753246753</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6753246753246753</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8612300907417983</v>
+        <v>0.8625189332803614</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8380208204007648</v>
+        <v>0.8429551298498857</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         <v>0.6103896103896104</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8122825949009123</v>
+        <v>0.8034595827918897</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8173761646209067</v>
+        <v>0.8277546026149309</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6168831168831169</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6168831168831169</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8250329694280977</v>
+        <v>0.8279580405399813</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8233474246600286</v>
+        <v>0.8310971370397041</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8095239228377435</v>
+        <v>0.8116681427038243</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6883116883116883</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6883116883116883</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8497214842036435</v>
+        <v>0.8300401840770077</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.638961038961039</v>
+        <v>0.6357142857142858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.638961038961039</v>
+        <v>0.6357142857142858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8289637356983034</v>
+        <v>0.8309158500180711</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03572412300567578</v>
+        <v>0.02779510712985628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03572412300567578</v>
+        <v>0.02779510712985628</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02256363228185454</v>
+        <v>0.02424505319219157</v>
       </c>
     </row>
   </sheetData>
